--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_18.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-54124.16048870248</v>
+        <v>-28157.52200221563</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779842</v>
+        <v>16628357.41382743</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484449</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8650664.830376629</v>
+        <v>8688274.53077938</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>325.5800738246913</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>219.293738423961</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -817,7 +817,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -832,10 +832,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>102.4718771365686</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>196.9406857635056</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>327.2879775827834</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>131.6793655011336</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>90.30617524481245</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1117,10 +1117,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>77.62164701214547</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>82.72749518863679</v>
       </c>
       <c r="C8" t="n">
-        <v>332.0164959768354</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>163.293878347428</v>
+        <v>99.28616603324262</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1370,7 +1370,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1379,16 +1379,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>401.3387541456055</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>146.8960989303473</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,16 +1421,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1537,7 +1537,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>210.1409105078475</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>54.66258501924912</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1622,10 +1622,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>267.5187270561138</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>158.7868437042806</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>275.2967631885901</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>402.9038273458263</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1859,7 +1859,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112161</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -2008,13 +2008,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>161.4887027346021</v>
+        <v>53.90045570694536</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -2056,7 +2056,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2081,7 +2081,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>415.0409221333098</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791322127</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>56.67612639678273</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>94.21878984361724</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2482,13 +2482,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>53.90045570694531</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -2530,7 +2530,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2542,7 +2542,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.6988144892037</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2606,7 +2606,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556917</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
         <v>256.6300796561533</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>79.86552601431228</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2719,7 +2719,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2962,10 +2962,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>43.48898701015935</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3187,25 +3187,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>126.7641785672302</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>18.05677735225767</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3433,13 +3433,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>14.14416275345333</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800603</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3521,7 +3521,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3563,10 +3563,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.8069000430768</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3661,7 +3661,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3676,7 +3676,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>31.24391673888174</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3740,25 +3740,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112169</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3797,16 +3797,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="42">
@@ -3913,7 +3913,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>18.05677735225774</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>155.2022955251545</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3977,25 +3977,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791304972</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4034,16 +4034,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="45">
@@ -4138,7 +4138,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>24.62703520776509</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1654.761434047123</v>
+        <v>1263.878367897515</v>
       </c>
       <c r="C2" t="n">
-        <v>1620.659365270951</v>
+        <v>1229.776299121342</v>
       </c>
       <c r="D2" t="n">
-        <v>1192.077691008219</v>
+        <v>793.8665142957864</v>
       </c>
       <c r="E2" t="n">
-        <v>863.2089295691367</v>
+        <v>764.1321734944856</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>336.2647439036934</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>336.2647439036934</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>47.13458934690973</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>46.71779997404973</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>481.9724874269676</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>1042.104373311969</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1042.104373311969</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1042.104373311969</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1042.104373311969</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1042.104373311969</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1620.237147990835</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2166.73593394943</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.889998702487</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.889998702487</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.889998702487</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.889998702487</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2114.381172011617</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>2113.566121463054</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>1694.423658042365</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.020600491627</v>
+        <v>1690.177938382422</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>552.8895449653426</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>446.4330838019848</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>351.3427949485381</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>257.2223802754918</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>173.8385418916534</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>88.45345215783726</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>46.71779997404973</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>72.78147313450734</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>397.3397981007196</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>397.3397981007196</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>397.3397981007196</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>397.3397981007196</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>397.3397981007196</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>473.913070047578</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1052.045844726443</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1592.784783358519</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1709.957561452859</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1646.502123901242</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1516.323480231843</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1339.986933231812</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1140.869415293811</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>955.546661027005</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>800.679225265885</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>674.1934460451057</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>884.4397056785397</v>
+        <v>953.2142490691562</v>
       </c>
       <c r="C4" t="n">
-        <v>711.8779941617646</v>
+        <v>953.2142490691562</v>
       </c>
       <c r="D4" t="n">
-        <v>546.0000013632873</v>
+        <v>787.3362562706789</v>
       </c>
       <c r="E4" t="n">
-        <v>376.2419976140245</v>
+        <v>617.5782525214161</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>440.8711984831722</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>275.2799235089999</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>135.3777491993744</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>46.71779997404973</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>46.71779997404973</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>248.7613033998446</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>666.9711851678057</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>1126.455052348719</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>1568.713855506363</v>
       </c>
       <c r="O4" t="n">
-        <v>1233.160939331176</v>
+        <v>1988.383104732145</v>
       </c>
       <c r="P4" t="n">
-        <v>1580.667833301518</v>
+        <v>2335.889998702487</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.889998702487</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2314.472177407858</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2155.230808705855</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1909.35136228431</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1630.918361537415</v>
       </c>
       <c r="V4" t="n">
-        <v>1593.676483477823</v>
+        <v>1343.962853407846</v>
       </c>
       <c r="W4" t="n">
-        <v>1321.650079064114</v>
+        <v>1343.962853407846</v>
       </c>
       <c r="X4" t="n">
-        <v>1076.258324397527</v>
+        <v>1343.962853407846</v>
       </c>
       <c r="Y4" t="n">
-        <v>1076.258324397527</v>
+        <v>1145.032867788143</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>846.6806259663152</v>
+        <v>1786.86986531245</v>
       </c>
       <c r="C5" t="n">
-        <v>418.0989517035836</v>
+        <v>1348.727392495873</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>912.8176076703178</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>479.0428628286129</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="O5" t="n">
-        <v>1277.130531135514</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2233.332265386148</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2233.332265386148</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2232.517214837585</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>2217.4151554573</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>2213.169435797358</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>376.2419976140245</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C7" t="n">
-        <v>376.2419976140245</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D7" t="n">
-        <v>376.2419976140245</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E7" t="n">
-        <v>376.2419976140245</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="F7" t="n">
-        <v>199.5349435757807</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>688.8848573262783</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1108.937756271182</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1528.990655216085</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1013.629614209975</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>726.6741060804052</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>454.6477016666967</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>376.2419976140245</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>376.2419976140245</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1654.761434047123</v>
+        <v>2078.642592532902</v>
       </c>
       <c r="C8" t="n">
-        <v>1319.391236090724</v>
+        <v>1640.500119716325</v>
       </c>
       <c r="D8" t="n">
-        <v>890.8095618279922</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E8" t="n">
-        <v>462.2278875652606</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F8" t="n">
-        <v>34.36045797446834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>2585.593902066702</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>2166.451438646013</v>
       </c>
       <c r="Y8" t="n">
-        <v>1677.020600491627</v>
+        <v>2162.20571898607</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>2210.968635687902</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1924.013127558332</v>
       </c>
       <c r="W10" t="n">
-        <v>1697.183430080417</v>
+        <v>1651.986723144624</v>
       </c>
       <c r="X10" t="n">
-        <v>1532.240118618369</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1304.820447932477</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2367.23356159534</v>
+        <v>2045.766582468059</v>
       </c>
       <c r="C11" t="n">
-        <v>1929.091088778763</v>
+        <v>2045.766582468059</v>
       </c>
       <c r="D11" t="n">
-        <v>1493.181303953208</v>
+        <v>1609.856797642504</v>
       </c>
       <c r="E11" t="n">
-        <v>1059.406559111503</v>
+        <v>1176.082052800799</v>
       </c>
       <c r="F11" t="n">
-        <v>631.5391295207105</v>
+        <v>770.6893718456417</v>
       </c>
       <c r="G11" t="n">
-        <v>230.1412981439744</v>
+        <v>369.2915404689056</v>
       </c>
       <c r="H11" t="n">
-        <v>81.7614002345324</v>
+        <v>80.16138591212187</v>
       </c>
       <c r="I11" t="n">
-        <v>81.34461086167241</v>
+        <v>80.16138591212187</v>
       </c>
       <c r="J11" t="n">
-        <v>516.5992983145903</v>
+        <v>80.16138591212187</v>
       </c>
       <c r="K11" t="n">
-        <v>1350.949590272768</v>
+        <v>80.16138591212187</v>
       </c>
       <c r="L11" t="n">
-        <v>1543.088150968265</v>
+        <v>1072.15853657463</v>
       </c>
       <c r="M11" t="n">
-        <v>1543.088150968265</v>
+        <v>2064.155687237138</v>
       </c>
       <c r="N11" t="n">
-        <v>1543.088150968265</v>
+        <v>3027.889629035787</v>
       </c>
       <c r="O11" t="n">
-        <v>2523.267817538572</v>
+        <v>4008.069295606094</v>
       </c>
       <c r="P11" t="n">
-        <v>3351.577692371968</v>
+        <v>4008.069295606094</v>
       </c>
       <c r="Q11" t="n">
-        <v>3898.076478330563</v>
+        <v>4008.069295606094</v>
       </c>
       <c r="R11" t="n">
-        <v>4067.23054308362</v>
+        <v>4008.069295606094</v>
       </c>
       <c r="S11" t="n">
-        <v>3983.578669267457</v>
+        <v>3924.417421789931</v>
       </c>
       <c r="T11" t="n">
-        <v>3983.578669267457</v>
+        <v>3704.350194662969</v>
       </c>
       <c r="U11" t="n">
-        <v>3983.578669267457</v>
+        <v>3704.350194662969</v>
       </c>
       <c r="V11" t="n">
-        <v>3620.961719201283</v>
+        <v>3704.350194662969</v>
       </c>
       <c r="W11" t="n">
-        <v>3620.961719201283</v>
+        <v>3299.494740074003</v>
       </c>
       <c r="X11" t="n">
-        <v>3201.819255780594</v>
+        <v>2880.352276653314</v>
       </c>
       <c r="Y11" t="n">
-        <v>2793.533132080247</v>
+        <v>2472.066152952967</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>587.5163558529651</v>
+        <v>586.3331309034147</v>
       </c>
       <c r="C12" t="n">
-        <v>481.0598946896075</v>
+        <v>479.876669740057</v>
       </c>
       <c r="D12" t="n">
-        <v>385.9696058361607</v>
+        <v>384.7863808866102</v>
       </c>
       <c r="E12" t="n">
-        <v>291.8491911631144</v>
+        <v>290.6659662135639</v>
       </c>
       <c r="F12" t="n">
-        <v>208.465352779276</v>
+        <v>207.2821278297255</v>
       </c>
       <c r="G12" t="n">
-        <v>123.0802630454599</v>
+        <v>121.8970380959094</v>
       </c>
       <c r="H12" t="n">
-        <v>81.34461086167241</v>
+        <v>80.16138591212187</v>
       </c>
       <c r="I12" t="n">
-        <v>107.40828402213</v>
+        <v>106.2250590725795</v>
       </c>
       <c r="J12" t="n">
-        <v>431.9666089883423</v>
+        <v>430.7833840387918</v>
       </c>
       <c r="K12" t="n">
-        <v>1086.672655614066</v>
+        <v>430.7833840387918</v>
       </c>
       <c r="L12" t="n">
-        <v>1086.672655614066</v>
+        <v>430.7833840387918</v>
       </c>
       <c r="M12" t="n">
-        <v>1086.672655614066</v>
+        <v>430.7833840387918</v>
       </c>
       <c r="N12" t="n">
-        <v>1086.672655614066</v>
+        <v>430.7833840387918</v>
       </c>
       <c r="O12" t="n">
-        <v>1086.672655614066</v>
+        <v>1085.489430664516</v>
       </c>
       <c r="P12" t="n">
-        <v>1086.672655614066</v>
+        <v>1085.489430664516</v>
       </c>
       <c r="Q12" t="n">
-        <v>1627.411594246141</v>
+        <v>1626.228369296591</v>
       </c>
       <c r="R12" t="n">
-        <v>1744.584372340481</v>
+        <v>1743.401147390931</v>
       </c>
       <c r="S12" t="n">
-        <v>1681.128934788864</v>
+        <v>1679.945709839314</v>
       </c>
       <c r="T12" t="n">
-        <v>1550.950291119466</v>
+        <v>1549.767066169916</v>
       </c>
       <c r="U12" t="n">
-        <v>1374.613744119434</v>
+        <v>1373.430519169884</v>
       </c>
       <c r="V12" t="n">
-        <v>1175.496226181433</v>
+        <v>1174.313001231883</v>
       </c>
       <c r="W12" t="n">
-        <v>990.1734719146275</v>
+        <v>988.9902469650772</v>
       </c>
       <c r="X12" t="n">
-        <v>835.3060361535075</v>
+        <v>834.1228112039571</v>
       </c>
       <c r="Y12" t="n">
-        <v>708.8202569327283</v>
+        <v>707.6370319831778</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1160.402771473554</v>
+        <v>982.5124924857595</v>
       </c>
       <c r="C13" t="n">
-        <v>987.8410599567788</v>
+        <v>809.9507809689844</v>
       </c>
       <c r="D13" t="n">
-        <v>821.9630671583016</v>
+        <v>644.0727881705072</v>
       </c>
       <c r="E13" t="n">
-        <v>652.2050634090388</v>
+        <v>474.3147844212444</v>
       </c>
       <c r="F13" t="n">
-        <v>475.4980093707949</v>
+        <v>474.3147844212444</v>
       </c>
       <c r="G13" t="n">
-        <v>309.9067343966226</v>
+        <v>308.723509447072</v>
       </c>
       <c r="H13" t="n">
-        <v>170.0045600869971</v>
+        <v>168.8213351374465</v>
       </c>
       <c r="I13" t="n">
-        <v>81.34461086167241</v>
+        <v>80.16138591212187</v>
       </c>
       <c r="J13" t="n">
-        <v>167.9242960263623</v>
+        <v>166.7410710768117</v>
       </c>
       <c r="K13" t="n">
-        <v>442.6827505974979</v>
+        <v>441.4995256479473</v>
       </c>
       <c r="L13" t="n">
-        <v>860.8926323654589</v>
+        <v>859.7094074159083</v>
       </c>
       <c r="M13" t="n">
-        <v>1320.376499546372</v>
+        <v>1319.193274596821</v>
       </c>
       <c r="N13" t="n">
-        <v>1762.635302704017</v>
+        <v>1761.452077754466</v>
       </c>
       <c r="O13" t="n">
-        <v>2182.304551929798</v>
+        <v>2181.121326980247</v>
       </c>
       <c r="P13" t="n">
-        <v>2529.81144590014</v>
+        <v>2528.628220950589</v>
       </c>
       <c r="Q13" t="n">
-        <v>2698.004220764472</v>
+        <v>2696.820995814921</v>
       </c>
       <c r="R13" t="n">
-        <v>2676.586399469844</v>
+        <v>2696.820995814921</v>
       </c>
       <c r="S13" t="n">
-        <v>2676.586399469844</v>
+        <v>2696.820995814921</v>
       </c>
       <c r="T13" t="n">
-        <v>2430.706953048299</v>
+        <v>2484.557449847398</v>
       </c>
       <c r="U13" t="n">
-        <v>2152.273952301404</v>
+        <v>2206.124449100504</v>
       </c>
       <c r="V13" t="n">
-        <v>2097.059219958729</v>
+        <v>1919.168940970935</v>
       </c>
       <c r="W13" t="n">
-        <v>1825.03281554502</v>
+        <v>1647.142536557226</v>
       </c>
       <c r="X13" t="n">
-        <v>1579.641060878433</v>
+        <v>1401.750781890638</v>
       </c>
       <c r="Y13" t="n">
-        <v>1352.221390192541</v>
+        <v>1174.331111204747</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2509.179631825946</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2071.03715900937</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1635.127374183814</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1201.352629342109</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>773.4851997513169</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>372.0873683745804</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>101.8664319542628</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I14" t="n">
-        <v>101.8664319542628</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>537.1211194071807</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1371.471411365359</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2446.531377618218</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2446.531377618218</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N14" t="n">
-        <v>3549.358872168091</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3549.358872168091</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4377.668747001487</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4924.167532960081</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>5093.321597713138</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5009.669723896975</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.602496770013</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4530.38019408703</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4167.763244020856</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3762.90778943189</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3343.765326011201</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2935.479202310854</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>608.0381769455555</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>501.5817157821978</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>406.4914269287511</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>312.3710122557048</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>228.9871738718664</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>143.6020841380503</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>101.8664319542628</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>127.9301051147203</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>452.4884300809327</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1107.194476706656</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>1107.194476706656</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1107.194476706656</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1107.194476706656</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1107.194476706656</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1107.194476706656</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1647.933415338732</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1765.106193433072</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1701.650755881455</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1571.472112212056</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1395.135565212025</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1196.018047274024</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1010.695293007218</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>855.8278572460979</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>729.3420780253186</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1092.264643340819</v>
+        <v>875.8255515988633</v>
       </c>
       <c r="C16" t="n">
-        <v>919.7029318240445</v>
+        <v>703.2638400820882</v>
       </c>
       <c r="D16" t="n">
-        <v>753.8249390255671</v>
+        <v>537.3858472836109</v>
       </c>
       <c r="E16" t="n">
-        <v>584.0669352763043</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F16" t="n">
-        <v>407.3598812380606</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7686062638882</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H16" t="n">
-        <v>101.8664319542628</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>101.8664319542628</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>188.4461171189526</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.2045716900882</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>881.4144534580493</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1340.898320638962</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1783.157123796607</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2202.826373022388</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.33326699273</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.526041857062</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.526041857062</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2559.284673155059</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2313.405226733514</v>
+        <v>2377.870508960502</v>
       </c>
       <c r="U16" t="n">
-        <v>2034.972225986619</v>
+        <v>2099.437508213608</v>
       </c>
       <c r="V16" t="n">
-        <v>1756.894687412286</v>
+        <v>1812.482000084038</v>
       </c>
       <c r="W16" t="n">
-        <v>1756.894687412286</v>
+        <v>1540.45559567033</v>
       </c>
       <c r="X16" t="n">
-        <v>1511.502932745698</v>
+        <v>1295.063841003742</v>
       </c>
       <c r="Y16" t="n">
-        <v>1284.083262059807</v>
+        <v>1067.64417031785</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.505639335272</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.363166518695</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.45338169314</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1220.678636851435</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>792.8112072606426</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.4133758839065</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H17" t="n">
-        <v>102.2832213271227</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>101.8664319542628</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.1211194071807</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.471411365359</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.531377618218</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.531377618218</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>2569.179205597784</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3549.358872168091</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4377.668747001487</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4924.167532960081</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5093.321597713138</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5009.669723896975</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.602496770013</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4530.38019408703</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4167.763244020856</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3762.90778943189</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3343.765326011201</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2935.479202310854</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>608.0381769455555</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>501.5817157821978</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>406.4914269287511</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>312.3710122557048</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>228.9871738718664</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>143.6020841380503</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>101.8664319542628</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>127.9301051147203</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>452.4884300809327</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.194476706656</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.194476706656</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.194476706656</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.194476706656</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.194476706656</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.194476706656</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1647.933415338732</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1765.106193433072</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1701.650755881455</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1571.472112212056</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1395.135565212025</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1196.018047274024</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1010.695293007218</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>855.8278572460979</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>729.3420780253186</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1089.793270118771</v>
+        <v>811.7546776883916</v>
       </c>
       <c r="C19" t="n">
-        <v>917.2315586019955</v>
+        <v>639.1929661716165</v>
       </c>
       <c r="D19" t="n">
-        <v>751.3535658035182</v>
+        <v>473.3149733731392</v>
       </c>
       <c r="E19" t="n">
-        <v>581.5955620542554</v>
+        <v>473.3149733731392</v>
       </c>
       <c r="F19" t="n">
-        <v>404.8885080160116</v>
+        <v>296.6079193348954</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7686062638882</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
-        <v>101.8664319542628</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>101.8664319542628</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>188.4461171189526</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.2045716900882</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>881.4144534580493</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1340.898320638962</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.157123796607</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2202.826373022388</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.33326699273</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.526041857062</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.526041857062</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.284673155059</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.405226733515</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2313.405226733515</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>2026.449718603945</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1754.423314190237</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1509.03155952365</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1281.611888837758</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2509.179631825946</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2089.946377145835</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.03659232028</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1220.261847478575</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>792.3944178877825</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>390.9965865110465</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>101.8664319542628</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
-        <v>101.8664319542628</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.1211194071807</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.471411365359</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.531377618218</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.531377618218</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2569.179205597784</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3549.358872168091</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4377.668747001487</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4924.167532960081</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5093.321597713138</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5009.669723896975</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.602496770013</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4530.38019408703</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4167.763244020856</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3762.90778943189</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3343.765326011201</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2935.479202310854</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>608.0381769455555</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>501.5817157821978</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>406.4914269287511</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>312.3710122557048</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>228.9871738718664</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>143.6020841380503</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>101.8664319542628</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>127.9301051147203</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>452.4884300809327</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.194476706656</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.194476706656</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.194476706656</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.194476706656</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.194476706656</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.194476706656</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1647.933415338732</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>1765.106193433072</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>1701.650755881455</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>1571.472112212056</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>1395.135565212025</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>1196.018047274024</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>1010.695293007218</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>855.8278572460979</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>729.3420780253186</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>970.6016380738788</v>
+        <v>811.7546776883918</v>
       </c>
       <c r="C22" t="n">
-        <v>798.0399265571037</v>
+        <v>754.506065166389</v>
       </c>
       <c r="D22" t="n">
-        <v>632.1619337586264</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E22" t="n">
-        <v>462.4039300093638</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F22" t="n">
-        <v>285.69687597112</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G22" t="n">
-        <v>190.5263811795874</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
-        <v>190.5263811795874</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
-        <v>101.8664319542628</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>188.4461171189526</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.2045716900882</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>881.4144534580493</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>1340.898320638962</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.157123796607</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>2202.826373022388</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.33326699273</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.526041857062</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.526041857062</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.526041857062</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2472.646595435518</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.213594688623</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.258086559053</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W22" t="n">
-        <v>1635.231682145345</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1389.839927478758</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y22" t="n">
-        <v>1162.420256792866</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.659051657336</v>
+        <v>811.7546776883916</v>
       </c>
       <c r="C25" t="n">
-        <v>920.0973401405612</v>
+        <v>639.1929661716165</v>
       </c>
       <c r="D25" t="n">
-        <v>754.2193473420839</v>
+        <v>473.3149733731392</v>
       </c>
       <c r="E25" t="n">
-        <v>584.4613435928212</v>
+        <v>473.3149733731392</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>296.6079193348953</v>
       </c>
       <c r="G25" t="n">
         <v>242.1630145804051</v>
@@ -6178,19 +6178,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2313.799635050031</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>2026.844126920461</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1754.817722506753</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1509.425967840166</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1284.477670376323</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6248,7 +6248,7 @@
         <v>5113.042013538981</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
         <v>5029.390139722817</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>922.9010479080736</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309359</v>
+        <v>750.3393363912985</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324586</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,19 +6464,19 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="P29" t="n">
         <v>4397.38916282733</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>970.9960463903953</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>798.4343348736203</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>632.556342075143</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>462.7983383258803</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>286.0912842876368</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752035</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.60800300514</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461862</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109383</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937635</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309358</v>
+        <v>662.2922315783794</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6862,10 +6862,10 @@
         <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>881.8088617745666</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>1341.29272895548</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
         <v>1783.551532113124</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6944,13 +6944,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3603.973621145286</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
@@ -7011,10 +7011,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K36" t="n">
         <v>1107.588885023173</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937632</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769882</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292482</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>282.1391483292482</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>116.5478733550758</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127503</v>
       </c>
     </row>
     <row r="38">
@@ -7154,70 +7154,70 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436394</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>306.1208027766308</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.168637987182</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="39">
@@ -7242,10 +7242,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I39" t="n">
         <v>128.3245134312372</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477109</v>
+        <v>811.7546776883921</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309358</v>
+        <v>811.754677688392</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324585</v>
+        <v>645.8766848899147</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>476.118681140652</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>299.4116271024083</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>133.820352128236</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J40" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L40" t="n">
         <v>881.8088617745661</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004244</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J41" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7479,10 +7479,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I42" t="n">
         <v>128.3245134312372</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>970.9960463903956</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C43" t="n">
-        <v>798.4343348736205</v>
+        <v>920.0973401405614</v>
       </c>
       <c r="D43" t="n">
-        <v>632.5563420751432</v>
+        <v>754.2193473420841</v>
       </c>
       <c r="E43" t="n">
-        <v>462.7983383258803</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>286.0912842876365</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>120.5000093134642</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I43" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J43" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L43" t="n">
         <v>881.8088617745661</v>
@@ -7591,28 +7591,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="S43" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="T43" t="n">
         <v>2473.041003752035</v>
       </c>
       <c r="U43" t="n">
-        <v>2194.60800300514</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V43" t="n">
-        <v>1907.65249487557</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W43" t="n">
-        <v>1635.626090461862</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X43" t="n">
-        <v>1390.234335795275</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y43" t="n">
-        <v>1162.814665109383</v>
+        <v>1284.477670376324</v>
       </c>
     </row>
     <row r="44">
@@ -7634,61 +7634,61 @@
         <v>1221.073045167951</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771588</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J44" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L44" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M44" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
         <v>2955.199618136697</v>
@@ -7716,16 +7716,16 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H45" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I45" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J45" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K45" t="n">
         <v>1107.588885023173</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883905</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716155</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324588</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831957</v>
+        <v>444.559169283196</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J46" t="n">
         <v>188.8405254354695</v>
@@ -7810,7 +7810,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>881.8088617745661</v>
+        <v>881.808861774566</v>
       </c>
       <c r="M46" t="n">
         <v>1341.292728955479</v>
@@ -7822,7 +7822,7 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q46" t="n">
         <v>2718.920450173579</v>
@@ -7831,25 +7831,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407378</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>565.789783722224</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>583.9724996756217</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>77.34673934026097</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>583.9724996756216</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,19 +8134,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>204.0843468947423</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8155,7 +8155,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>117.6925219988882</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,31 +8213,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8377,22 +8377,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>194.0793542378758</v>
+        <v>1002.017323901523</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1002.017323901524</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>973.4686280794435</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8933,13 +8933,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
-        <v>1113.967166211993</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9170,10 +9170,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>123.8866949288549</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>123.8866949288549</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>-2.647518703460994e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,22 +10112,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>507.1059092967421</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10592,16 +10592,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>801.4298400828725</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463143</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11303,10 +11303,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949880262</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>22.25000114927883</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>139.3427540808683</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>33.27974144948178</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>229.4233680290247</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>18.72012595510207</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>84.63380825304864</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>8.789189859683725</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.13274743423239</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.446659489828463</v>
+        <v>110.0349065174852</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>87.77334973307066</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>18.72012595510116</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>-7.685968036784871e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>114.1599680048246</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>69.71657238081336</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24370,13 +24370,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>110.0349065174853</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.446659489829083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>110.034906517485</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>120.4463752142713</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,10 +24886,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>44.07191583437711</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>3.146865729424167</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25321,13 +25321,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>124.3589898130759</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>107.2592358276475</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>120.4463752142715</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>120.4463752142713</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>139.5921776627274</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>733784.3954296382</v>
+        <v>743609.637929496</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>733784.3954296382</v>
+        <v>748750.197898839</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>733784.3954296382</v>
+        <v>748750.197898839</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>648191.6427531379</v>
+        <v>641552.8225497721</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>763335.1583890293</v>
+        <v>765548.0984568184</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>763335.1583890296</v>
+        <v>765548.0984568184</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>763335.1583890296</v>
+        <v>765548.0984568183</v>
       </c>
     </row>
     <row r="9">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241266.2939506839</v>
+        <v>241266.2939506838</v>
       </c>
       <c r="C2" t="n">
         <v>241266.2939506838</v>
@@ -26320,25 +26320,25 @@
         <v>241266.2939506838</v>
       </c>
       <c r="E2" t="n">
-        <v>200741.2828028745</v>
+        <v>198685.277763592</v>
       </c>
       <c r="F2" t="n">
-        <v>236400.5778487143</v>
+        <v>237085.9128618085</v>
       </c>
       <c r="G2" t="n">
-        <v>236400.5778487143</v>
+        <v>237085.9128618085</v>
       </c>
       <c r="H2" t="n">
-        <v>236400.5778487143</v>
+        <v>237085.9128618086</v>
       </c>
       <c r="I2" t="n">
-        <v>237085.9128618086</v>
+        <v>237085.9128618085</v>
       </c>
       <c r="J2" t="n">
         <v>237085.9128618085</v>
       </c>
       <c r="K2" t="n">
-        <v>237085.9128618086</v>
+        <v>237085.9128618085</v>
       </c>
       <c r="L2" t="n">
         <v>237085.9128618085</v>
@@ -26353,7 +26353,7 @@
         <v>237085.9128618085</v>
       </c>
       <c r="P2" t="n">
-        <v>237085.9128618084</v>
+        <v>237085.9128618085</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>195702.6160087934</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>26990.19963889422</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>176910.9817265676</v>
+        <v>99874.97317730838</v>
       </c>
       <c r="F3" t="n">
-        <v>73500.4413796943</v>
+        <v>79150.85324460964</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1311.018174206046</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>152792.9007051284</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>21501.21939773554</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>147656.3051872125</v>
+        <v>83359.26563805087</v>
       </c>
       <c r="N3" t="n">
-        <v>62829.35093431091</v>
+        <v>67659.41322128708</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205960.9728418668</v>
+        <v>179242.2862846095</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="D4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>68955.10513583758</v>
+        <v>68248.8625450559</v>
       </c>
       <c r="F4" t="n">
-        <v>81204.15727211558</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="G4" t="n">
-        <v>81204.1572721156</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="H4" t="n">
-        <v>81204.1572721156</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="I4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904281</v>
       </c>
       <c r="K4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904281</v>
       </c>
       <c r="L4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="M4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="N4" t="n">
-        <v>81439.57146904286</v>
+        <v>81439.57146904276</v>
       </c>
       <c r="O4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904276</v>
       </c>
       <c r="P4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.5714690428</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>69133.12798027779</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>61821.90425487102</v>
+        <v>60922.65329321262</v>
       </c>
       <c r="F5" t="n">
-        <v>77418.48828523968</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77418.48828523968</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77418.48828523968</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579253</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-166310.7676881152</v>
+        <v>-202811.7363229968</v>
       </c>
       <c r="C6" t="n">
-        <v>-24119.46702840528</v>
+        <v>-25199.51850952658</v>
       </c>
       <c r="D6" t="n">
-        <v>-24119.46702840528</v>
+        <v>1790.681129367716</v>
       </c>
       <c r="E6" t="n">
-        <v>-106946.7083144017</v>
+        <v>-30597.77245302434</v>
       </c>
       <c r="F6" t="n">
-        <v>4277.490911664761</v>
+        <v>-1245.974797019129</v>
       </c>
       <c r="G6" t="n">
-        <v>77777.93229135904</v>
+        <v>77904.87844759054</v>
       </c>
       <c r="H6" t="n">
-        <v>77777.93229135899</v>
+        <v>77904.87844759054</v>
       </c>
       <c r="I6" t="n">
-        <v>76617.08461276715</v>
+        <v>77904.87844759054</v>
       </c>
       <c r="J6" t="n">
-        <v>-33086.36255801706</v>
+        <v>-74888.0222575378</v>
       </c>
       <c r="K6" t="n">
-        <v>77928.10278697318</v>
+        <v>56403.65904985498</v>
       </c>
       <c r="L6" t="n">
-        <v>77928.10278697318</v>
+        <v>77904.87844759054</v>
       </c>
       <c r="M6" t="n">
-        <v>-69728.20240023933</v>
+        <v>-5454.387190460348</v>
       </c>
       <c r="N6" t="n">
-        <v>15098.7518526622</v>
+        <v>10245.46522630352</v>
       </c>
       <c r="O6" t="n">
-        <v>77928.10278697313</v>
+        <v>77904.87844759053</v>
       </c>
       <c r="P6" t="n">
-        <v>77928.10278697309</v>
+        <v>77904.87844759053</v>
       </c>
     </row>
   </sheetData>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756216</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1016.807635770905</v>
+        <v>1002.017323901523</v>
       </c>
       <c r="F4" t="n">
-        <v>1273.330399428284</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1273.330399428284</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
-        <v>1273.330399428284</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26823,13 +26823,13 @@
         <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
     </row>
   </sheetData>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756216</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>83.54270693223532</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>592.5117782508007</v>
+        <v>334.5021172936665</v>
       </c>
       <c r="F4" t="n">
-        <v>256.5227636573794</v>
+        <v>276.2431794832219</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,22 +27030,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.930103956460925</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>583.9724996756216</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>83.54270693223532</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>592.5117782508007</v>
+        <v>334.5021172936665</v>
       </c>
       <c r="N4" t="n">
-        <v>256.5227636573792</v>
+        <v>276.2431794832221</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756216</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>83.54270693223532</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>592.5117782508007</v>
+        <v>334.5021172936665</v>
       </c>
       <c r="N4" t="n">
-        <v>256.5227636573794</v>
+        <v>276.2431794832219</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>103.8569235685964</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>139.6970421415508</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>181.6140759117052</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>28.20478821552723</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>104.2627093945165</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>124.9507141550197</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27682,7 +27682,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>84.63380825304888</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>165.3161901077762</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>339.3090795914219</v>
       </c>
       <c r="C8" t="n">
-        <v>101.7445521115756</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27916,7 +27916,7 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>79.64395877249362</v>
+        <v>143.651671086679</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28740,7 +28740,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>7.54122690220053e-13</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -30220,10 +30220,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-1.663456302629427e-12</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-9.697685318346741e-13</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
     </row>
     <row r="42">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
     </row>
     <row r="45">
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>565.789783722224</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>583.9724996756217</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>77.34673934026097</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>583.9724996756216</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>204.0843468947423</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>117.6925219988882</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>194.0793542378758</v>
+        <v>1002.017323901523</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1002.017323901524</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>973.4686280794435</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,7 +35501,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35647,19 +35647,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
-        <v>1113.967166211993</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35817,13 +35817,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,16 +35884,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>123.8866949288549</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36121,7 +36121,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>123.8866949288549</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36291,13 +36291,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36832,22 +36832,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>507.1059092967421</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -36996,13 +36996,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37230,7 +37230,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.434224008042</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37312,16 +37312,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>801.4298400828725</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463143</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K39" t="n">
         <v>661.3192390158824</v>
@@ -37704,7 +37704,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,7 +37713,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158824</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>0.03656536949880262</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908061</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
@@ -38190,10 +38190,10 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
